--- a/AACS_Static_Analysis_Report.xlsx
+++ b/AACS_Static_Analysis_Report.xlsx
@@ -372,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -380,9 +380,7 @@
     </font>
     <font>
       <sz val="36.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -392,6 +390,7 @@
     <font>
       <b/>
       <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -406,6 +405,14 @@
     <font/>
     <font>
       <b/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -504,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -515,9 +522,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -526,87 +530,85 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,7 +901,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="summary 2" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A11:E21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A10:E20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields>
     <pivotField name="Folder" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -996,7 +998,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="summary 3" cacheId="1" dataCaption="" compact="0" compactData="0">
-  <location ref="A25:E29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A24:E28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields>
     <pivotField name="Folder" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
@@ -1093,7 +1095,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="summary 4" cacheId="1" dataCaption="" compact="0" compactData="0">
-  <location ref="A31:E40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A30:E39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields>
     <pivotField name="Folder" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -1404,40 +1406,40 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="C10" s="2"/>
@@ -1446,68 +1448,68 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1.0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>44364.0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1528,18 +1530,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1548,6 +1550,7 @@
     <row r="6"/>
     <row r="7" ht="18.0" customHeight="1"/>
     <row r="8"/>
+    <row r="10"/>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
@@ -1558,17 +1561,21 @@
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>
-    <row r="21"/>
-    <row r="24">
-      <c r="A24" s="14" t="s">
+    <row r="23">
+      <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24"/>
     <row r="25"/>
     <row r="26"/>
     <row r="27"/>
     <row r="28"/>
-    <row r="29"/>
+    <row r="30"/>
     <row r="31"/>
     <row r="32"/>
     <row r="33"/>
@@ -1578,7 +1585,6 @@
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>
-    <row r="40"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
@@ -1646,8 +1652,8 @@
         <v>38</v>
       </c>
       <c r="G2" s="21"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
@@ -1669,8 +1675,8 @@
         <v>39</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
@@ -1692,8 +1698,8 @@
         <v>40</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
@@ -1715,8 +1721,8 @@
         <v>41</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
@@ -1738,8 +1744,8 @@
         <v>43</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
@@ -1761,8 +1767,8 @@
         <v>44</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
@@ -1784,8 +1790,8 @@
         <v>45</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
@@ -1807,8 +1813,8 @@
         <v>46</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
@@ -1830,8 +1836,8 @@
         <v>48</v>
       </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
@@ -1853,8 +1859,8 @@
         <v>49</v>
       </c>
       <c r="G11" s="21"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
@@ -1876,8 +1882,8 @@
         <v>51</v>
       </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
@@ -9921,7 +9927,7 @@
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -9933,425 +9939,425 @@
       <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -10359,159 +10365,159 @@
       <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="33" t="s">
         <v>90</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="33" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="33" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="33" t="s">
         <v>98</v>
       </c>
     </row>
